--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="162">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,30 +49,30 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
@@ -94,394 +94,406 @@
     <t>love</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>recipes</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>handy</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>mas</t>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>dough</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>powerful</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>cookies</t>
   </si>
   <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>home</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
+    <t>baking</t>
+  </si>
+  <si>
     <t>super</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>fan</t>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>maker</t>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>brand</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>making</t>
+    <t>big</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>dish</t>
+    <t>far</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>got</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>first</t>
+    <t>made</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>handle</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>work</t>
   </si>
   <si>
     <t>product</t>
@@ -845,7 +857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q138"/>
+  <dimension ref="A1:Q142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -856,7 +868,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -914,13 +926,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -932,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
@@ -988,13 +1000,13 @@
         <v>22</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1006,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1014,13 +1026,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1032,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K5">
-        <v>0.8984375</v>
+        <v>0.921875</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1056,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1064,13 +1076,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4716981132075472</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1082,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
@@ -1114,13 +1126,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4031007751937984</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1132,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8544891640866873</v>
+        <v>0.8606811145510835</v>
       </c>
       <c r="L7">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="M7">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1156,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1164,13 +1176,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.36</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1182,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8">
-        <v>0.85</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1206,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1214,13 +1226,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3434343434343434</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1232,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
@@ -1264,13 +1276,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.217948717948718</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1282,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8115942028985508</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L10">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1306,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1314,13 +1326,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1513513513513514</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1332,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>0.7894736842105263</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1356,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1364,13 +1376,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1440677966101695</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1382,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0.75</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1406,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1414,37 +1426,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1020408163265306</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7142857142857143</v>
+        <v>0.8</v>
       </c>
       <c r="L13">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1456,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1464,13 +1476,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.08205128205128205</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1482,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7012987012987013</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L14">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="M14">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1506,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1514,13 +1526,13 @@
         <v>33</v>
       </c>
       <c r="K15">
-        <v>0.6986301369863014</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M15">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1540,13 +1552,13 @@
         <v>34</v>
       </c>
       <c r="K16">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1558,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1566,13 +1578,13 @@
         <v>35</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1584,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1592,13 +1604,13 @@
         <v>36</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1610,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1618,13 +1630,13 @@
         <v>37</v>
       </c>
       <c r="K19">
-        <v>0.6875</v>
+        <v>0.65625</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1636,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1644,13 +1656,13 @@
         <v>38</v>
       </c>
       <c r="K20">
-        <v>0.6847457627118644</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L20">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1662,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1670,13 +1682,13 @@
         <v>39</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1688,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1696,13 +1708,13 @@
         <v>40</v>
       </c>
       <c r="K22">
-        <v>0.6521739130434783</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1714,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1722,13 +1734,13 @@
         <v>41</v>
       </c>
       <c r="K23">
-        <v>0.6500802568218299</v>
+        <v>0.6396468699839486</v>
       </c>
       <c r="L23">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="M23">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1740,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1748,13 +1760,13 @@
         <v>42</v>
       </c>
       <c r="K24">
-        <v>0.6338028169014085</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L24">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1766,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1774,13 +1786,13 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>0.6285714285714286</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1792,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1800,13 +1812,13 @@
         <v>44</v>
       </c>
       <c r="K26">
-        <v>0.6222222222222222</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1818,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1826,13 +1838,13 @@
         <v>45</v>
       </c>
       <c r="K27">
-        <v>0.6153846153846154</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1844,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1852,13 +1864,13 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>0.6142857142857143</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1870,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1878,13 +1890,13 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>0.6078431372549019</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1896,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1904,13 +1916,13 @@
         <v>48</v>
       </c>
       <c r="K30">
-        <v>0.6029411764705882</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1930,13 +1942,13 @@
         <v>49</v>
       </c>
       <c r="K31">
-        <v>0.5828571428571429</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L31">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1948,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1956,13 +1968,13 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.5789473684210527</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L32">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1974,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1982,13 +1994,13 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>0.5769230769230769</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L33">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2000,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2008,13 +2020,13 @@
         <v>52</v>
       </c>
       <c r="K34">
-        <v>0.5614035087719298</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2026,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2034,13 +2046,13 @@
         <v>53</v>
       </c>
       <c r="K35">
-        <v>0.5568862275449101</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L35">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="M35">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2052,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2063,10 +2075,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2078,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2086,13 +2098,13 @@
         <v>55</v>
       </c>
       <c r="K37">
-        <v>0.5510204081632653</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2104,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2112,13 +2124,13 @@
         <v>56</v>
       </c>
       <c r="K38">
-        <v>0.5384615384615384</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2130,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2138,13 +2150,13 @@
         <v>57</v>
       </c>
       <c r="K39">
-        <v>0.5384615384615384</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2156,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2164,13 +2176,13 @@
         <v>58</v>
       </c>
       <c r="K40">
-        <v>0.5128205128205128</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L40">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2182,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2190,13 +2202,13 @@
         <v>59</v>
       </c>
       <c r="K41">
-        <v>0.5079365079365079</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2208,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2216,13 +2228,13 @@
         <v>60</v>
       </c>
       <c r="K42">
-        <v>0.5060240963855421</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L42">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="M42">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2234,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2242,13 +2254,13 @@
         <v>61</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2260,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2268,13 +2280,13 @@
         <v>62</v>
       </c>
       <c r="K44">
-        <v>0.4918032786885246</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2286,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2294,13 +2306,13 @@
         <v>63</v>
       </c>
       <c r="K45">
-        <v>0.4878048780487805</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2312,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2320,13 +2332,13 @@
         <v>64</v>
       </c>
       <c r="K46">
-        <v>0.4871794871794872</v>
+        <v>0.5</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2346,13 +2358,13 @@
         <v>65</v>
       </c>
       <c r="K47">
-        <v>0.4848484848484849</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2364,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2372,13 +2384,13 @@
         <v>66</v>
       </c>
       <c r="K48">
-        <v>0.4605263157894737</v>
+        <v>0.49</v>
       </c>
       <c r="L48">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M48">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2390,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2398,13 +2410,13 @@
         <v>67</v>
       </c>
       <c r="K49">
-        <v>0.46</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="L49">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2416,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2424,13 +2436,13 @@
         <v>68</v>
       </c>
       <c r="K50">
-        <v>0.4567901234567901</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L50">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2442,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2450,13 +2462,13 @@
         <v>69</v>
       </c>
       <c r="K51">
-        <v>0.4464285714285715</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2468,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2476,13 +2488,13 @@
         <v>70</v>
       </c>
       <c r="K52">
-        <v>0.4354838709677419</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L52">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M52">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2494,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2502,13 +2514,13 @@
         <v>71</v>
       </c>
       <c r="K53">
-        <v>0.4285714285714285</v>
+        <v>0.4518072289156627</v>
       </c>
       <c r="L53">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="M53">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2520,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2528,13 +2540,13 @@
         <v>72</v>
       </c>
       <c r="K54">
-        <v>0.4285714285714285</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M54">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2546,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2554,13 +2566,13 @@
         <v>73</v>
       </c>
       <c r="K55">
-        <v>0.4264705882352941</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L55">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2572,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2580,13 +2592,13 @@
         <v>74</v>
       </c>
       <c r="K56">
-        <v>0.4210526315789473</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L56">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2598,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2606,13 +2618,13 @@
         <v>75</v>
       </c>
       <c r="K57">
-        <v>0.4124513618677043</v>
+        <v>0.4163424124513619</v>
       </c>
       <c r="L57">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M57">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2624,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2632,13 +2644,13 @@
         <v>76</v>
       </c>
       <c r="K58">
-        <v>0.4036144578313253</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L58">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="M58">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2650,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>99</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2658,13 +2670,13 @@
         <v>77</v>
       </c>
       <c r="K59">
-        <v>0.4</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="L59">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M59">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2676,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2684,13 +2696,13 @@
         <v>78</v>
       </c>
       <c r="K60">
-        <v>0.3947368421052632</v>
+        <v>0.3970588235294117</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2702,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2710,13 +2722,13 @@
         <v>79</v>
       </c>
       <c r="K61">
-        <v>0.391304347826087</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2728,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2736,13 +2748,13 @@
         <v>80</v>
       </c>
       <c r="K62">
-        <v>0.3829787234042553</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="L62">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="M62">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2754,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2762,13 +2774,13 @@
         <v>81</v>
       </c>
       <c r="K63">
-        <v>0.3823529411764706</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L63">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="M63">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2780,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>252</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2788,13 +2800,13 @@
         <v>82</v>
       </c>
       <c r="K64">
-        <v>0.3818181818181818</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L64">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M64">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2806,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2814,25 +2826,25 @@
         <v>83</v>
       </c>
       <c r="K65">
-        <v>0.3762376237623762</v>
+        <v>0.3734643734643734</v>
       </c>
       <c r="L65">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="M65">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>63</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2840,13 +2852,13 @@
         <v>84</v>
       </c>
       <c r="K66">
-        <v>0.3695652173913043</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L66">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2858,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2866,13 +2878,13 @@
         <v>85</v>
       </c>
       <c r="K67">
-        <v>0.3690476190476191</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="L67">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M67">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2884,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2892,13 +2904,13 @@
         <v>86</v>
       </c>
       <c r="K68">
-        <v>0.3666666666666666</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L68">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M68">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2910,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2918,13 +2930,13 @@
         <v>87</v>
       </c>
       <c r="K69">
-        <v>0.3603603603603603</v>
+        <v>0.3534246575342466</v>
       </c>
       <c r="L69">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="M69">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2936,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>71</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2944,13 +2956,13 @@
         <v>88</v>
       </c>
       <c r="K70">
-        <v>0.3561643835616438</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L70">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="M70">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2962,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>470</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2970,13 +2982,13 @@
         <v>89</v>
       </c>
       <c r="K71">
-        <v>0.3458646616541353</v>
+        <v>0.3453237410071943</v>
       </c>
       <c r="L71">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M71">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2988,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2996,13 +3008,13 @@
         <v>90</v>
       </c>
       <c r="K72">
-        <v>0.3381294964028777</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="L72">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M72">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3014,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>92</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -3022,13 +3034,13 @@
         <v>91</v>
       </c>
       <c r="K73">
-        <v>0.3377483443708609</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L73">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M73">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3040,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -3048,13 +3060,13 @@
         <v>92</v>
       </c>
       <c r="K74">
-        <v>0.3301435406698565</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L74">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="M74">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3066,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -3074,13 +3086,13 @@
         <v>93</v>
       </c>
       <c r="K75">
-        <v>0.3148148148148148</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="L75">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M75">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3092,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -3100,13 +3112,13 @@
         <v>94</v>
       </c>
       <c r="K76">
-        <v>0.3055555555555556</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M76">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3118,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3126,13 +3138,13 @@
         <v>95</v>
       </c>
       <c r="K77">
-        <v>0.2823529411764706</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M77">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3144,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3152,13 +3164,13 @@
         <v>96</v>
       </c>
       <c r="K78">
-        <v>0.28125</v>
+        <v>0.2913907284768212</v>
       </c>
       <c r="L78">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M78">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3170,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>46</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3178,25 +3190,25 @@
         <v>97</v>
       </c>
       <c r="K79">
-        <v>0.2684563758389262</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L79">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M79">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3204,13 +3216,13 @@
         <v>98</v>
       </c>
       <c r="K80">
-        <v>0.2638888888888889</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="L80">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M80">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3222,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3230,13 +3242,13 @@
         <v>99</v>
       </c>
       <c r="K81">
-        <v>0.2594187298170075</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L81">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="M81">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3248,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>688</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3256,13 +3268,13 @@
         <v>100</v>
       </c>
       <c r="K82">
-        <v>0.25</v>
+        <v>0.2615715823466093</v>
       </c>
       <c r="L82">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="M82">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3274,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>57</v>
+        <v>686</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3282,25 +3294,25 @@
         <v>101</v>
       </c>
       <c r="K83">
-        <v>0.25</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L83">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M83">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N83">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3334,13 +3346,13 @@
         <v>103</v>
       </c>
       <c r="K85">
-        <v>0.2342342342342342</v>
+        <v>0.25</v>
       </c>
       <c r="L85">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M85">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3352,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3360,13 +3372,13 @@
         <v>104</v>
       </c>
       <c r="K86">
-        <v>0.2307692307692308</v>
+        <v>0.2488038277511962</v>
       </c>
       <c r="L86">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="M86">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3378,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>90</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3386,13 +3398,13 @@
         <v>105</v>
       </c>
       <c r="K87">
-        <v>0.2285714285714286</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="L87">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M87">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3404,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3412,13 +3424,13 @@
         <v>106</v>
       </c>
       <c r="K88">
-        <v>0.2278145695364238</v>
+        <v>0.223841059602649</v>
       </c>
       <c r="L88">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M88">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3430,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3438,13 +3450,13 @@
         <v>107</v>
       </c>
       <c r="K89">
-        <v>0.2250639386189258</v>
+        <v>0.2237851662404092</v>
       </c>
       <c r="L89">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M89">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3456,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3464,7 +3476,7 @@
         <v>108</v>
       </c>
       <c r="K90">
-        <v>0.2207792207792208</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="L90">
         <v>17</v>
@@ -3482,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3490,13 +3502,13 @@
         <v>109</v>
       </c>
       <c r="K91">
-        <v>0.2163009404388715</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L91">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M91">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3508,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>250</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3516,25 +3528,25 @@
         <v>110</v>
       </c>
       <c r="K92">
-        <v>0.2142857142857143</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L92">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M92">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N92">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>66</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3542,13 +3554,13 @@
         <v>111</v>
       </c>
       <c r="K93">
-        <v>0.2134146341463415</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L93">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M93">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3560,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>129</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3568,13 +3580,13 @@
         <v>112</v>
       </c>
       <c r="K94">
-        <v>0.2</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="L94">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M94">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3586,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3594,25 +3606,25 @@
         <v>113</v>
       </c>
       <c r="K95">
-        <v>0.1972972972972973</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="L95">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="M95">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="N95">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>297</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3620,13 +3632,13 @@
         <v>114</v>
       </c>
       <c r="K96">
-        <v>0.1956521739130435</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L96">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="M96">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3638,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>74</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3646,25 +3658,25 @@
         <v>115</v>
       </c>
       <c r="K97">
-        <v>0.1923076923076923</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L97">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M97">
         <v>25</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3672,13 +3684,13 @@
         <v>116</v>
       </c>
       <c r="K98">
-        <v>0.1834862385321101</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L98">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M98">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3690,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3698,13 +3710,13 @@
         <v>117</v>
       </c>
       <c r="K99">
-        <v>0.1732456140350877</v>
+        <v>0.2</v>
       </c>
       <c r="L99">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="M99">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3716,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>377</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3724,13 +3736,13 @@
         <v>118</v>
       </c>
       <c r="K100">
-        <v>0.1694915254237288</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="L100">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M100">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3742,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>147</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3750,13 +3762,13 @@
         <v>119</v>
       </c>
       <c r="K101">
-        <v>0.1616161616161616</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="L101">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M101">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3768,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3776,13 +3788,13 @@
         <v>120</v>
       </c>
       <c r="K102">
-        <v>0.1612903225806452</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L102">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M102">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3794,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3802,25 +3814,25 @@
         <v>121</v>
       </c>
       <c r="K103">
-        <v>0.1604938271604938</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="L103">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M103">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N103">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3828,13 +3840,13 @@
         <v>122</v>
       </c>
       <c r="K104">
-        <v>0.1592592592592593</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L104">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M104">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3846,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>227</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3854,13 +3866,13 @@
         <v>123</v>
       </c>
       <c r="K105">
-        <v>0.1549815498154982</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L105">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M105">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3872,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>229</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3880,25 +3892,25 @@
         <v>124</v>
       </c>
       <c r="K106">
-        <v>0.1393939393939394</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="L106">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="M106">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106">
-        <v>142</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3906,25 +3918,25 @@
         <v>125</v>
       </c>
       <c r="K107">
-        <v>0.1393643031784841</v>
+        <v>0.1721311475409836</v>
       </c>
       <c r="L107">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M107">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="N107">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O107">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>352</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3932,13 +3944,13 @@
         <v>126</v>
       </c>
       <c r="K108">
-        <v>0.1379310344827586</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="L108">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M108">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3950,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>175</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3958,25 +3970,25 @@
         <v>127</v>
       </c>
       <c r="K109">
-        <v>0.1352657004830918</v>
+        <v>0.1670644391408115</v>
       </c>
       <c r="L109">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="M109">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="N109">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>179</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3984,13 +3996,13 @@
         <v>128</v>
       </c>
       <c r="K110">
-        <v>0.1349206349206349</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L110">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="M110">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -4002,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>109</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -4010,13 +4022,13 @@
         <v>129</v>
       </c>
       <c r="K111">
-        <v>0.1340909090909091</v>
+        <v>0.1656441717791411</v>
       </c>
       <c r="L111">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="M111">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -4028,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>381</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -4036,25 +4048,25 @@
         <v>130</v>
       </c>
       <c r="K112">
-        <v>0.1320754716981132</v>
+        <v>0.1635687732342007</v>
       </c>
       <c r="L112">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M112">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N112">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O112">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>138</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -4062,13 +4074,13 @@
         <v>131</v>
       </c>
       <c r="K113">
-        <v>0.1288782816229117</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="L113">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="M113">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -4080,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>365</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -4088,13 +4100,13 @@
         <v>132</v>
       </c>
       <c r="K114">
-        <v>0.1282051282051282</v>
+        <v>0.1576354679802956</v>
       </c>
       <c r="L114">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M114">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -4106,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>136</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="10:17">
@@ -4114,13 +4126,13 @@
         <v>133</v>
       </c>
       <c r="K115">
-        <v>0.1260504201680672</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="L115">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M115">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4132,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="10:17">
@@ -4140,13 +4152,13 @@
         <v>134</v>
       </c>
       <c r="K116">
-        <v>0.1241830065359477</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="L116">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M116">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -4158,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>134</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117" spans="10:17">
@@ -4166,13 +4178,13 @@
         <v>135</v>
       </c>
       <c r="K117">
-        <v>0.124031007751938</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L117">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M117">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -4184,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>113</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="10:17">
@@ -4192,13 +4204,13 @@
         <v>136</v>
       </c>
       <c r="K118">
-        <v>0.1209677419354839</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="L118">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M118">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -4210,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>218</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119" spans="10:17">
@@ -4218,25 +4230,25 @@
         <v>137</v>
       </c>
       <c r="K119">
-        <v>0.1188811188811189</v>
+        <v>0.1306818181818182</v>
       </c>
       <c r="L119">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M119">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N119">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O119">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P119" t="b">
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="10:17">
@@ -4244,25 +4256,25 @@
         <v>138</v>
       </c>
       <c r="K120">
-        <v>0.1184210526315789</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L120">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M120">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N120">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O120">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>134</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="10:17">
@@ -4270,13 +4282,13 @@
         <v>139</v>
       </c>
       <c r="K121">
-        <v>0.1168384879725086</v>
+        <v>0.1295454545454545</v>
       </c>
       <c r="L121">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M121">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4288,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>257</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="10:17">
@@ -4296,13 +4308,13 @@
         <v>140</v>
       </c>
       <c r="K122">
-        <v>0.1145038167938931</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L122">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M122">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -4314,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>116</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="10:17">
@@ -4322,13 +4334,13 @@
         <v>141</v>
       </c>
       <c r="K123">
-        <v>0.1140939597315436</v>
+        <v>0.1241830065359477</v>
       </c>
       <c r="L123">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M123">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -4340,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="10:17">
@@ -4348,13 +4360,13 @@
         <v>142</v>
       </c>
       <c r="K124">
-        <v>0.1038961038961039</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="L124">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M124">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -4366,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="10:17">
@@ -4374,25 +4386,25 @@
         <v>143</v>
       </c>
       <c r="K125">
-        <v>0.1021555763823805</v>
+        <v>0.11875</v>
       </c>
       <c r="L125">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="M125">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="N125">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O125">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>958</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="10:17">
@@ -4400,25 +4412,25 @@
         <v>144</v>
       </c>
       <c r="K126">
-        <v>0.1005747126436782</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L126">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="M126">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="N126">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O126">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>626</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="10:17">
@@ -4426,13 +4438,13 @@
         <v>145</v>
       </c>
       <c r="K127">
-        <v>0.09836065573770492</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="L127">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M127">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -4444,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="10:17">
@@ -4452,25 +4464,25 @@
         <v>146</v>
       </c>
       <c r="K128">
-        <v>0.08487084870848709</v>
+        <v>0.09328358208955224</v>
       </c>
       <c r="L128">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="M128">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="N128">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O128">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>248</v>
+        <v>972</v>
       </c>
     </row>
     <row r="129" spans="10:17">
@@ -4478,25 +4490,25 @@
         <v>147</v>
       </c>
       <c r="K129">
-        <v>0.08121827411167512</v>
+        <v>0.09051724137931035</v>
       </c>
       <c r="L129">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="M129">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="N129">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O129">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P129" t="b">
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>181</v>
+        <v>633</v>
       </c>
     </row>
     <row r="130" spans="10:17">
@@ -4504,25 +4516,25 @@
         <v>148</v>
       </c>
       <c r="K130">
-        <v>0.07888040712468193</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="L130">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M130">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N130">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O130">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P130" t="b">
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>362</v>
+        <v>190</v>
       </c>
     </row>
     <row r="131" spans="10:17">
@@ -4530,13 +4542,13 @@
         <v>149</v>
       </c>
       <c r="K131">
-        <v>0.07112970711297072</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L131">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M131">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -4548,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>222</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="10:17">
@@ -4556,25 +4568,25 @@
         <v>150</v>
       </c>
       <c r="K132">
-        <v>0.07024029574861368</v>
+        <v>0.07578558225508318</v>
       </c>
       <c r="L132">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M132">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N132">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O132">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P132" t="b">
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="10:17">
@@ -4582,25 +4594,25 @@
         <v>151</v>
       </c>
       <c r="K133">
-        <v>0.06111111111111111</v>
+        <v>0.06985294117647059</v>
       </c>
       <c r="L133">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M133">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N133">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O133">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q133">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="10:17">
@@ -4608,25 +4620,25 @@
         <v>152</v>
       </c>
       <c r="K134">
-        <v>0.05815972222222222</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="L134">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M134">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="N134">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O134">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P134" t="b">
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>1085</v>
+        <v>385</v>
       </c>
     </row>
     <row r="135" spans="10:17">
@@ -4634,25 +4646,25 @@
         <v>153</v>
       </c>
       <c r="K135">
-        <v>0.0558252427184466</v>
+        <v>0.06615776081424936</v>
       </c>
       <c r="L135">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M135">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N135">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O135">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P135" t="b">
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="136" spans="10:17">
@@ -4660,25 +4672,25 @@
         <v>154</v>
       </c>
       <c r="K136">
-        <v>0.05192307692307693</v>
+        <v>0.06513409961685823</v>
       </c>
       <c r="L136">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M136">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N136">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O136">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q136">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="137" spans="10:17">
@@ -4686,25 +4698,25 @@
         <v>155</v>
       </c>
       <c r="K137">
-        <v>0.05067567567567568</v>
+        <v>0.06375838926174497</v>
       </c>
       <c r="L137">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M137">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N137">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="O137">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P137" t="b">
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="10:17">
@@ -4712,25 +4724,129 @@
         <v>156</v>
       </c>
       <c r="K138">
-        <v>0.03937007874015748</v>
+        <v>0.06276150627615062</v>
       </c>
       <c r="L138">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M138">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N138">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O138">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q138">
-        <v>732</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="139" spans="10:17">
+      <c r="J139" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K139">
+        <v>0.05785123966942149</v>
+      </c>
+      <c r="L139">
+        <v>21</v>
+      </c>
+      <c r="M139">
+        <v>23</v>
+      </c>
+      <c r="N139">
+        <v>0.91</v>
+      </c>
+      <c r="O139">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P139" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="140" spans="10:17">
+      <c r="J140" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K140">
+        <v>0.05117085862966175</v>
+      </c>
+      <c r="L140">
+        <v>59</v>
+      </c>
+      <c r="M140">
+        <v>63</v>
+      </c>
+      <c r="N140">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O140">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P140" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q140">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="141" spans="10:17">
+      <c r="J141" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K141">
+        <v>0.04098360655737705</v>
+      </c>
+      <c r="L141">
+        <v>15</v>
+      </c>
+      <c r="M141">
+        <v>20</v>
+      </c>
+      <c r="N141">
+        <v>0.75</v>
+      </c>
+      <c r="O141">
+        <v>0.25</v>
+      </c>
+      <c r="P141" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q141">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="142" spans="10:17">
+      <c r="J142" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K142">
+        <v>0.02638522427440633</v>
+      </c>
+      <c r="L142">
+        <v>20</v>
+      </c>
+      <c r="M142">
+        <v>29</v>
+      </c>
+      <c r="N142">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O142">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P142" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q142">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
